--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_磐石组.xlsx
@@ -20,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.3新特性|Fix Bug'!$A$1:$S$3</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -264,31 +264,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>王向阳、蔡银军、孙苏文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上退款</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>虚假房源</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BS</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>续租账务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙苏文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东解约</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -308,10 +288,6 @@
   </si>
   <si>
     <t>张浩、钱文博</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1125,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T184"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1237,7 +1213,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>28</v>
@@ -1250,7 +1226,7 @@
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
       <c r="S2" s="33" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="T2" s="30"/>
     </row>
@@ -1259,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>30</v>
@@ -1290,7 +1266,7 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T3" s="29"/>
     </row>
@@ -1299,13 +1275,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1319,7 +1295,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
       <c r="J4" s="24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>28</v>
@@ -1339,27 +1315,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="16">
-        <v>42643</v>
-      </c>
-      <c r="G5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="I5" s="15"/>
       <c r="J5" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>
@@ -1371,33 +1349,17 @@
       <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="24"/>
       <c r="N6" s="16"/>
@@ -1409,37 +1371,17 @@
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="16">
-        <v>42641</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="16">
-        <v>42635</v>
-      </c>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="24"/>
       <c r="N7" s="16"/>
@@ -1451,28 +1393,16 @@
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="24" t="s">
-        <v>73</v>
-      </c>
+      <c r="J8" s="24"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="24"/>
@@ -1815,114 +1745,111 @@
       <c r="T23" s="29"/>
     </row>
     <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="24"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="19"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
-      <c r="S24" s="28"/>
+      <c r="S24" s="19"/>
       <c r="T24" s="29"/>
     </row>
     <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="24"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="19"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
-      <c r="S25" s="28"/>
+      <c r="S25" s="19"/>
       <c r="T25" s="29"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="15"/>
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="24"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="22"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="29"/>
-    </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
+      <c r="S26" s="22"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="19"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="22"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="29"/>
-    </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="19"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="22"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="29"/>
+      <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
@@ -3021,7 +2948,7 @@
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
       <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
+      <c r="E81" s="21"/>
       <c r="F81" s="23"/>
       <c r="G81" s="21"/>
       <c r="H81" s="23"/>
@@ -3042,7 +2969,7 @@
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
       <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="23"/>
       <c r="G82" s="21"/>
       <c r="H82" s="23"/>
@@ -3063,7 +2990,7 @@
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
       <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="23"/>
       <c r="G83" s="21"/>
       <c r="H83" s="23"/>
@@ -3142,11 +3069,11 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
-      <c r="D87" s="15"/>
+      <c r="D87" s="21"/>
       <c r="E87" s="21"/>
       <c r="F87" s="23"/>
       <c r="G87" s="21"/>
@@ -3163,11 +3090,11 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
-      <c r="D88" s="15"/>
+      <c r="D88" s="21"/>
       <c r="E88" s="21"/>
       <c r="F88" s="23"/>
       <c r="G88" s="21"/>
@@ -3184,11 +3111,11 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
-      <c r="D89" s="15"/>
+      <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="23"/>
       <c r="G89" s="21"/>
@@ -4418,9 +4345,6 @@
       <c r="M147" s="21"/>
       <c r="N147" s="23"/>
       <c r="O147" s="22"/>
-      <c r="P147" s="21"/>
-      <c r="Q147" s="21"/>
-      <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.15">
@@ -4439,9 +4363,6 @@
       <c r="M148" s="21"/>
       <c r="N148" s="23"/>
       <c r="O148" s="22"/>
-      <c r="P148" s="21"/>
-      <c r="Q148" s="21"/>
-      <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.15">
@@ -4460,9 +4381,6 @@
       <c r="M149" s="21"/>
       <c r="N149" s="23"/>
       <c r="O149" s="22"/>
-      <c r="P149" s="21"/>
-      <c r="Q149" s="21"/>
-      <c r="R149" s="21"/>
       <c r="S149" s="22"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.15">
@@ -5040,60 +4958,6 @@
       <c r="N181" s="23"/>
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="23"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="23"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="21"/>
-      <c r="K182" s="21"/>
-      <c r="L182" s="21"/>
-      <c r="M182" s="21"/>
-      <c r="N182" s="23"/>
-      <c r="O182" s="22"/>
-      <c r="S182" s="22"/>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A183" s="21"/>
-      <c r="B183" s="22"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="21"/>
-      <c r="F183" s="23"/>
-      <c r="G183" s="21"/>
-      <c r="H183" s="23"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="21"/>
-      <c r="K183" s="21"/>
-      <c r="L183" s="21"/>
-      <c r="M183" s="21"/>
-      <c r="N183" s="23"/>
-      <c r="O183" s="22"/>
-      <c r="S183" s="22"/>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A184" s="21"/>
-      <c r="B184" s="22"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="23"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="23"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="21"/>
-      <c r="K184" s="21"/>
-      <c r="L184" s="21"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="23"/>
-      <c r="O184" s="22"/>
-      <c r="S184" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S3"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_磐石组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>No</t>
   </si>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>账务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>虚假房源</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -291,18 +287,27 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>王向阳、孙苏文、严宏飞</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>账务优化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>集中式公寓列表 增加批量审核图片
 400分机号段需求
 拓展统计、日报导出功能
 删除联系人需求变更</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健
+陈一帆</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1101,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T181"/>
+  <dimension ref="A1:T180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1121,7 +1126,8 @@
     <col min="10" max="10" width="33" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="10" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="10" customWidth="1"/>
-    <col min="13" max="14" width="10" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10" style="11" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="11" customWidth="1"/>
     <col min="15" max="15" width="7.75" style="11" customWidth="1"/>
     <col min="16" max="16" width="12" style="12" customWidth="1"/>
     <col min="17" max="17" width="17" style="12" customWidth="1"/>
@@ -1206,27 +1212,37 @@
       <c r="E2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="16">
+        <v>42643</v>
+      </c>
       <c r="G2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="L2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42653</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
       <c r="S2" s="33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T2" s="30"/>
     </row>
@@ -1235,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>30</v>
@@ -1246,7 +1262,9 @@
       <c r="E3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="16">
+        <v>42643</v>
+      </c>
       <c r="G3" s="15" t="s">
         <v>26</v>
       </c>
@@ -1258,15 +1276,23 @@
       <c r="K3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42653</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" s="29"/>
     </row>
@@ -1275,13 +1301,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
@@ -1295,15 +1321,23 @@
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
       <c r="J4" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="L4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42653</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1311,33 +1345,17 @@
       <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>
@@ -1723,25 +1741,25 @@
       <c r="T22" s="29"/>
     </row>
     <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="24"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
-      <c r="S23" s="28"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="29"/>
     </row>
     <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1766,27 +1784,26 @@
       <c r="S24" s="19"/>
       <c r="T24" s="29"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="19"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="22"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="29"/>
+      <c r="S25" s="22"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
@@ -2927,7 +2944,7 @@
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
       <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="23"/>
       <c r="G80" s="21"/>
       <c r="H80" s="23"/>
@@ -3048,11 +3065,11 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
-      <c r="D86" s="15"/>
+      <c r="D86" s="21"/>
       <c r="E86" s="21"/>
       <c r="F86" s="23"/>
       <c r="G86" s="21"/>
@@ -4324,9 +4341,6 @@
       <c r="M146" s="21"/>
       <c r="N146" s="23"/>
       <c r="O146" s="22"/>
-      <c r="P146" s="21"/>
-      <c r="Q146" s="21"/>
-      <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.15">
@@ -4940,24 +4954,6 @@
       <c r="N180" s="23"/>
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A181" s="21"/>
-      <c r="B181" s="22"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
-      <c r="E181" s="21"/>
-      <c r="F181" s="23"/>
-      <c r="G181" s="21"/>
-      <c r="H181" s="23"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="21"/>
-      <c r="K181" s="21"/>
-      <c r="L181" s="21"/>
-      <c r="M181" s="21"/>
-      <c r="N181" s="23"/>
-      <c r="O181" s="22"/>
-      <c r="S181" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S3"/>
